--- a/media/cse3b.xlsx
+++ b/media/cse3b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="5655" windowHeight="4635" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="5655" windowHeight="4635" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="automata" sheetId="1" r:id="rId1"/>
@@ -3704,15 +3704,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
@@ -5922,8 +5922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9711,13 +9711,14 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:O1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="15" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1">

--- a/media/cse3b.xlsx
+++ b/media/cse3b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="5655" windowHeight="4635" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="5655" windowHeight="4635" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="automata" sheetId="1" r:id="rId1"/>
@@ -3704,8 +3704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:O1"/>
+    <sheetView topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5922,8 +5922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
